--- a/inst/shiny-examples/IDEMtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/IDEMtools/Extras/tables/Instruction_Tables.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\IDEMtools\inst\shiny-examples\MassIBItools\Extras\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/IDEMtools/inst/shiny-examples/IDEMtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="637" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{824E8E62-F8B0-4386-A047-6A047912DB89}"/>
+  <xr:revisionPtr revIDLastSave="776" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C9E6D52-BDDC-45DE-9B6A-468E0BB12004}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2460" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instr_Table" sheetId="9" r:id="rId1"/>
-    <sheet name="Bug_N" sheetId="1" r:id="rId2"/>
-    <sheet name="Bug_NC" sheetId="2" r:id="rId3"/>
-    <sheet name="Bug_SW" sheetId="3" r:id="rId4"/>
-    <sheet name="Bug_SE" sheetId="4" r:id="rId5"/>
-    <sheet name="Fish_WS" sheetId="5" r:id="rId6"/>
-    <sheet name="Fish_WL" sheetId="6" r:id="rId7"/>
-    <sheet name="Fish_BL" sheetId="7" r:id="rId8"/>
-    <sheet name="Fish_BH" sheetId="8" r:id="rId9"/>
+    <sheet name="Instr_Table_Diatoms" sheetId="10" r:id="rId1"/>
+    <sheet name="DiatomMetrics" sheetId="12" r:id="rId2"/>
+    <sheet name="Instr_Table_BugFish" sheetId="9" r:id="rId3"/>
+    <sheet name="Bug_N" sheetId="1" r:id="rId4"/>
+    <sheet name="Bug_NC" sheetId="2" r:id="rId5"/>
+    <sheet name="Bug_SW" sheetId="3" r:id="rId6"/>
+    <sheet name="Bug_SE" sheetId="4" r:id="rId7"/>
+    <sheet name="Fish_WS" sheetId="5" r:id="rId8"/>
+    <sheet name="Fish_WL" sheetId="6" r:id="rId9"/>
+    <sheet name="Fish_BL" sheetId="7" r:id="rId10"/>
+    <sheet name="Fish_BH" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="244">
   <si>
     <t>Metric (abbrev)</t>
   </si>
@@ -530,6 +532,249 @@
   </si>
   <si>
     <t>Number of broods or generations of an organism in a year (also referred to as 'voltinism'): univoltine (UNI), semivoltine (SEMI), or multivoltine (MULTI).</t>
+  </si>
+  <si>
+    <t>BFI</t>
+  </si>
+  <si>
+    <t>BC_USGS</t>
+  </si>
+  <si>
+    <t>PT_USGS</t>
+  </si>
+  <si>
+    <t>O_USGS</t>
+  </si>
+  <si>
+    <t>SALINITY_USGS</t>
+  </si>
+  <si>
+    <t>P_USGS</t>
+  </si>
+  <si>
+    <t>N_USGS</t>
+  </si>
+  <si>
+    <t>IDEM_2021_Diatoms</t>
+  </si>
+  <si>
+    <t>Only one allowable entry (IDEM_2021_Diatoms)</t>
+  </si>
+  <si>
+    <t>HiN, LoN</t>
+  </si>
+  <si>
+    <t>Must match one of the two allowable entries (which tells the R code which IBI to apply to each sample).</t>
+  </si>
+  <si>
+    <t>real number</t>
+  </si>
+  <si>
+    <t>[USGS StreamCat](https://www.epa.gov/national-aquatic-resource-surveys/streamcat-dataset-0) catchment-level Base Flow Index (BFI) value. Used for an adjustment of the pt_BC_12 metric.</t>
+  </si>
+  <si>
+    <t>Taxonomic identification of organisms in each sample.</t>
+  </si>
+  <si>
+    <t>Redundant (non-distinct) taxa should marked "TRUE".</t>
+  </si>
+  <si>
+    <t>Non-target taxa should be marked "TRUE".</t>
+  </si>
+  <si>
+    <t>The pt_Achnan_Navic metric is calculated using this field</t>
+  </si>
+  <si>
+    <t>Taxa tolerance to anthropogenic disturbance. For this project, taxa with tolerance values ranging from 0 to 3 are considered 'tolerant' to anthropogenic disturbance as measured by the pi_Tol13 metric calculation. Those with values ranging from 8 to 10 are included in the 'intolerant' metric, pt_Sens810.</t>
+  </si>
+  <si>
+    <t>USGS Diatom trait - The Biological Condition rating. See the [report appendix](https://github.com/Blocktt/IDEMtools/tree/main/reports) for metric descriptions.</t>
+  </si>
+  <si>
+    <t>USGS Diatom trait - The pollution tolerance system of Lange-Bertalot (1979). . See the [report appendix](https://github.com/Blocktt/IDEMtools/tree/main/reports) for metric descriptions.</t>
+  </si>
+  <si>
+    <t>USGS Diatom trait - Classification of “oxygen requirements” is based on several sources (Hustedt 1938, Cholnoky 1968, Van Dam 1975) and summarized in Van Dam et al. (1994). See the [report appendix](https://github.com/Blocktt/IDEMtools/tree/main/reports) for metric descriptions.</t>
+  </si>
+  <si>
+    <t>USGS Diatom trait - Tolerance to salinity is represented by the categories of fresh to brackish waters (Van Dam et al. 1994). . See the [report appendix](https://github.com/Blocktt/IDEMtools/tree/main/reports) for metric descriptions.</t>
+  </si>
+  <si>
+    <t>USGS Diatom trait - Nutrient status metrics are the only metrics that are based on data from US rivers (Potapova and Charles 2007). See the [report appendix](https://github.com/Blocktt/IDEMtools/tree/main/reports) for metric descriptions.</t>
+  </si>
+  <si>
+    <t>BC_1, BC_2, BC_3, BC_4, BC_5 (can select multiple)</t>
+  </si>
+  <si>
+    <t>PT_1, PT_2, PT_3, PT_4, PT_5 (can select multiple)</t>
+  </si>
+  <si>
+    <t>O_1, O_2, O_3, O_4, O_5 (can select multiple)</t>
+  </si>
+  <si>
+    <t>SALINITY_1, SALINITY_2, SALINITY_3, SALINITY_4 (can select multiple)</t>
+  </si>
+  <si>
+    <t>LOW_P, HIGH_P</t>
+  </si>
+  <si>
+    <t>LOW_N, HIGH_N</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>95th</t>
+  </si>
+  <si>
+    <t>Metric Category</t>
+  </si>
+  <si>
+    <t>pt_Achnan_Navic</t>
+  </si>
+  <si>
+    <t>81.8 (DEC)</t>
+  </si>
+  <si>
+    <t>100*(metric - 14) / 18</t>
+  </si>
+  <si>
+    <t>Taxa Groups</t>
+  </si>
+  <si>
+    <t>nt_LOW_P</t>
+  </si>
+  <si>
+    <t>100*(metric - 1) / 6</t>
+  </si>
+  <si>
+    <t>Nutrients</t>
+  </si>
+  <si>
+    <t>pt_SALINITY_34</t>
+  </si>
+  <si>
+    <t>90.9 (INC)</t>
+  </si>
+  <si>
+    <t>100*(25-metric) / 18</t>
+  </si>
+  <si>
+    <t>Salts</t>
+  </si>
+  <si>
+    <t>pt_O_345</t>
+  </si>
+  <si>
+    <t>72.7 (INC)</t>
+  </si>
+  <si>
+    <t>100*(47-metric) / 23</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen</t>
+  </si>
+  <si>
+    <t>pt_Sens_810</t>
+  </si>
+  <si>
+    <t>100*(metric - 10) / 30</t>
+  </si>
+  <si>
+    <t>Pollution Tolerance</t>
+  </si>
+  <si>
+    <t>nt_LOW_N</t>
+  </si>
+  <si>
+    <t>43.5 (DEC)</t>
+  </si>
+  <si>
+    <t>100*(metric - 1) / 7</t>
+  </si>
+  <si>
+    <t>pt_PT_12</t>
+  </si>
+  <si>
+    <t>50 (INC)</t>
+  </si>
+  <si>
+    <t>100*(20 - metric)/13</t>
+  </si>
+  <si>
+    <t>pi_Tol_13</t>
+  </si>
+  <si>
+    <t>52.2 (INC)</t>
+  </si>
+  <si>
+    <t>100*(49.6-metric) / 48</t>
+  </si>
+  <si>
+    <t>Tolerance Analysis</t>
+  </si>
+  <si>
+    <t>45.7 DEC)</t>
+  </si>
+  <si>
+    <t>pt_BC_12_adj</t>
+  </si>
+  <si>
+    <t>54.3 (DEC)</t>
+  </si>
+  <si>
+    <t>100*(metric + 9) / 16</t>
+  </si>
+  <si>
+    <t>Biological Conditions</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Metric Abbreviation</t>
+  </si>
+  <si>
+    <t>Metric DE (Trend)</t>
+  </si>
+  <si>
+    <t>Scoring Formula</t>
+  </si>
+  <si>
+    <t>Metric Name</t>
+  </si>
+  <si>
+    <t>High Nitrogen Index</t>
+  </si>
+  <si>
+    <t>Low Nitrogen Index</t>
+  </si>
+  <si>
+    <t># low nitrogen taxa</t>
+  </si>
+  <si>
+    <t>% pollution tolerant taxa</t>
+  </si>
+  <si>
+    <t>% tolerant valves</t>
+  </si>
+  <si>
+    <t>% Achnanthidium or Navicula taxa</t>
+  </si>
+  <si>
+    <t>% sensitive taxa (adjusted for stream BFI value)</t>
+  </si>
+  <si>
+    <t># low phosphorus taxa</t>
+  </si>
+  <si>
+    <t>% salt tolerant taxa</t>
+  </si>
+  <si>
+    <t>% low dissolved oxygen taxa</t>
+  </si>
+  <si>
+    <t>% sensitive taxa</t>
   </si>
 </sst>
 </file>
@@ -610,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -645,6 +890,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,10 +1180,962 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9F0D2-CC77-4503-9118-5EC0831F78BB}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="98.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA0657-29F5-4616-9040-346197EC86A3}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78449ECD-F460-41A5-AB1D-5EAA5A7C52BF}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6778C791-9A0C-41F8-B593-6C46134CE190}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9">
+        <v>1.6</v>
+      </c>
+      <c r="G9">
+        <v>49.6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11">
+        <v>-9</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A600CB5-0FBB-4C6F-ACC1-0B9BA1C4A60F}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1292,7 +2499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1389,7 +2596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1D1177-BF58-4690-B0F3-E4B8B9C44B80}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1508,7 +2715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BD45DD-C9A0-4868-ABC6-135358DC1150}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1615,7 +2822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE666A-6F6C-4CC2-A2DC-6E828F6056A7}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1724,7 +2931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588ADA60-339A-4CB8-94EA-E826EAEBFF0A}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1866,7 +3073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00690039-BC6A-4645-958A-044B1BAF5C2A}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1983,275 +3190,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA0657-29F5-4616-9040-346197EC86A3}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="83.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78449ECD-F460-41A5-AB1D-5EAA5A7C52BF}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/inst/shiny-examples/IDEMtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/IDEMtools/Extras/tables/Instruction_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/IDEMtools/inst/shiny-examples/IDEMtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="776" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C9E6D52-BDDC-45DE-9B6A-468E0BB12004}"/>
+  <xr:revisionPtr revIDLastSave="782" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0305C542-2873-4C86-87F7-7D3FDD0A56CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_Table_Diatoms" sheetId="10" r:id="rId1"/>
@@ -588,21 +588,6 @@
     <t>Taxa tolerance to anthropogenic disturbance. For this project, taxa with tolerance values ranging from 0 to 3 are considered 'tolerant' to anthropogenic disturbance as measured by the pi_Tol13 metric calculation. Those with values ranging from 8 to 10 are included in the 'intolerant' metric, pt_Sens810.</t>
   </si>
   <si>
-    <t>USGS Diatom trait - The Biological Condition rating. See the [report appendix](https://github.com/Blocktt/IDEMtools/tree/main/reports) for metric descriptions.</t>
-  </si>
-  <si>
-    <t>USGS Diatom trait - The pollution tolerance system of Lange-Bertalot (1979). . See the [report appendix](https://github.com/Blocktt/IDEMtools/tree/main/reports) for metric descriptions.</t>
-  </si>
-  <si>
-    <t>USGS Diatom trait - Classification of “oxygen requirements” is based on several sources (Hustedt 1938, Cholnoky 1968, Van Dam 1975) and summarized in Van Dam et al. (1994). See the [report appendix](https://github.com/Blocktt/IDEMtools/tree/main/reports) for metric descriptions.</t>
-  </si>
-  <si>
-    <t>USGS Diatom trait - Tolerance to salinity is represented by the categories of fresh to brackish waters (Van Dam et al. 1994). . See the [report appendix](https://github.com/Blocktt/IDEMtools/tree/main/reports) for metric descriptions.</t>
-  </si>
-  <si>
-    <t>USGS Diatom trait - Nutrient status metrics are the only metrics that are based on data from US rivers (Potapova and Charles 2007). See the [report appendix](https://github.com/Blocktt/IDEMtools/tree/main/reports) for metric descriptions.</t>
-  </si>
-  <si>
     <t>BC_1, BC_2, BC_3, BC_4, BC_5 (can select multiple)</t>
   </si>
   <si>
@@ -775,6 +760,21 @@
   </si>
   <si>
     <t>% sensitive taxa</t>
+  </si>
+  <si>
+    <t>USGS Diatom trait - The Biological Condition rating. See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/IDEMtools/Reports) for metric descriptions.</t>
+  </si>
+  <si>
+    <t>USGS Diatom trait - The pollution tolerance system of Lange-Bertalot (1979). . See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/IDEMtools/Reports) for metric descriptions.</t>
+  </si>
+  <si>
+    <t>USGS Diatom trait - Classification of “oxygen requirements” is based on several sources (Hustedt 1938, Cholnoky 1968, Van Dam 1975) and summarized in Van Dam et al. (1994). See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/IDEMtools/Reports) for metric descriptions.</t>
+  </si>
+  <si>
+    <t>USGS Diatom trait - Tolerance to salinity is represented by the categories of fresh to brackish waters (Van Dam et al. 1994). . See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/IDEMtools/Reports) for metric descriptions.</t>
+  </si>
+  <si>
+    <t>USGS Diatom trait - Nutrient status metrics are the only metrics that are based on data from US rivers (Potapova and Charles 2007). See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/IDEMtools/Reports) for metric descriptions.</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9F0D2-CC77-4503-9118-5EC0831F78BB}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,13 +1456,13 @@
         <v>114</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1473,13 +1473,13 @@
         <v>114</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1490,13 +1490,13 @@
         <v>114</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1507,13 +1507,13 @@
         <v>114</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1524,13 +1524,13 @@
         <v>114</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1541,13 +1541,13 @@
         <v>114</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6778C791-9A0C-41F8-B593-6C46134CE190}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1865,45 +1865,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F2">
         <v>14</v>
@@ -1912,21 +1912,21 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1935,21 +1935,21 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -1958,21 +1958,21 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F5">
         <v>24</v>
@@ -1981,21 +1981,21 @@
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -2004,24 +2004,24 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2030,21 +2030,21 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -2053,21 +2053,21 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F9">
         <v>1.6</v>
@@ -2076,21 +2076,21 @@
         <v>49.6</v>
       </c>
       <c r="H9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F10">
         <v>14</v>
@@ -2099,21 +2099,21 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F11">
         <v>-9</v>
@@ -2122,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/IDEMtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/IDEMtools/Extras/tables/Instruction_Tables.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/IDEMtools/inst/shiny-examples/IDEMtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="782" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0305C542-2873-4C86-87F7-7D3FDD0A56CB}"/>
+  <xr:revisionPtr revIDLastSave="817" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{068D3D27-8C00-4D77-B527-9E4B5F3D6691}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_Table_Diatoms" sheetId="10" r:id="rId1"/>
     <sheet name="DiatomMetrics" sheetId="12" r:id="rId2"/>
-    <sheet name="Instr_Table_BugFish" sheetId="9" r:id="rId3"/>
-    <sheet name="Bug_N" sheetId="1" r:id="rId4"/>
-    <sheet name="Bug_NC" sheetId="2" r:id="rId5"/>
-    <sheet name="Bug_SW" sheetId="3" r:id="rId6"/>
-    <sheet name="Bug_SE" sheetId="4" r:id="rId7"/>
-    <sheet name="Fish_WS" sheetId="5" r:id="rId8"/>
-    <sheet name="Fish_WL" sheetId="6" r:id="rId9"/>
-    <sheet name="Fish_BL" sheetId="7" r:id="rId10"/>
-    <sheet name="Fish_BH" sheetId="8" r:id="rId11"/>
+    <sheet name="SiteClassInput" sheetId="13" r:id="rId3"/>
+    <sheet name="StreamCatVars" sheetId="14" r:id="rId4"/>
+    <sheet name="Instr_Table_BugFish" sheetId="9" r:id="rId5"/>
+    <sheet name="Bug_N" sheetId="1" r:id="rId6"/>
+    <sheet name="Bug_NC" sheetId="2" r:id="rId7"/>
+    <sheet name="Bug_SW" sheetId="3" r:id="rId8"/>
+    <sheet name="Bug_SE" sheetId="4" r:id="rId9"/>
+    <sheet name="Fish_WS" sheetId="5" r:id="rId10"/>
+    <sheet name="Fish_WL" sheetId="6" r:id="rId11"/>
+    <sheet name="Fish_BL" sheetId="7" r:id="rId12"/>
+    <sheet name="Fish_BH" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="259">
   <si>
     <t>Metric (abbrev)</t>
   </si>
@@ -775,6 +777,51 @@
   </si>
   <si>
     <t>USGS Diatom trait - Nutrient status metrics are the only metrics that are based on data from US rivers (Potapova and Charles 2007). See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/IDEMtools/Reports) for metric descriptions.</t>
+  </si>
+  <si>
+    <t>COMID</t>
+  </si>
+  <si>
+    <t>Any alphanumeric stationID name - should be unique.</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Variable Abbreviation</t>
+  </si>
+  <si>
+    <t>Variable Description</t>
+  </si>
+  <si>
+    <t>StreamCat Table</t>
+  </si>
+  <si>
+    <t>NWs</t>
+  </si>
+  <si>
+    <t>Mean % of lithological nitrogen (N) content in surface or near surface geology within watershed</t>
+  </si>
+  <si>
+    <t>Lithological Nitrogen</t>
+  </si>
+  <si>
+    <t>Base Flow Index</t>
+  </si>
+  <si>
+    <t>GeoChemPhys2_IN.csv</t>
+  </si>
+  <si>
+    <t>BFICat</t>
+  </si>
+  <si>
+    <t>Baseflow is the component of streamflow that can be attributed to ground-water discharge into streams. The Baseflow Index (BFI) is the ratio of baseflow to total flow, expressed as a percentage, within catchment.</t>
+  </si>
+  <si>
+    <t>BFI_IN.csv</t>
+  </si>
+  <si>
+    <t>A single COMID per stationID. To obtain COMIDs, use GIS tools to associate stationID with [NHDPlus v2 flowline layers](https://nhdplus.com/NHDPlus/). Contact Ben Block (Ben.Block@tetratech.com) for help on how to properly associate sites with flowlines.</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9F0D2-CC77-4503-9118-5EC0831F78BB}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,6 +1620,267 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588ADA60-339A-4CB8-94EA-E826EAEBFF0A}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00690039-BC6A-4645-958A-044B1BAF5C2A}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA0657-29F5-4616-9040-346197EC86A3}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1702,7 +2010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78449ECD-F460-41A5-AB1D-5EAA5A7C52BF}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1848,7 +2156,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2132,6 +2440,132 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FF9DF-D953-4ABE-835B-97D392B009F8}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13B6C17-F7DC-40F9-B395-1E70D79C8625}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A600CB5-0FBB-4C6F-ACC1-0B9BA1C4A60F}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2499,7 +2933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2596,7 +3030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1D1177-BF58-4690-B0F3-E4B8B9C44B80}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2715,7 +3149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BD45DD-C9A0-4868-ABC6-135358DC1150}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2822,7 +3256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE666A-6F6C-4CC2-A2DC-6E828F6056A7}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2929,265 +3363,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588ADA60-339A-4CB8-94EA-E826EAEBFF0A}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="81.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00690039-BC6A-4645-958A-044B1BAF5C2A}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="55.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/inst/shiny-examples/IDEMtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/IDEMtools/Extras/tables/Instruction_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/IDEMtools/inst/shiny-examples/IDEMtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="817" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{068D3D27-8C00-4D77-B527-9E4B5F3D6691}"/>
+  <xr:revisionPtr revIDLastSave="818" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{133E35DC-8AE9-4306-BF68-893CEC4ECA23}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_Table_Diatoms" sheetId="10" r:id="rId1"/>
@@ -758,9 +758,6 @@
     <t>% salt tolerant taxa</t>
   </si>
   <si>
-    <t>% low dissolved oxygen taxa</t>
-  </si>
-  <si>
     <t>% sensitive taxa</t>
   </si>
   <si>
@@ -822,6 +819,9 @@
   </si>
   <si>
     <t>A single COMID per stationID. To obtain COMIDs, use GIS tools to associate stationID with [NHDPlus v2 flowline layers](https://nhdplus.com/NHDPlus/). Contact Ben Block (Ben.Block@tetratech.com) for help on how to properly associate sites with flowlines.</t>
+  </si>
+  <si>
+    <t>% taxa tolerant to low dissolved oxygen</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1509,7 @@
         <v>119</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
         <v>119</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>119</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
         <v>119</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1577,7 +1577,7 @@
         <v>119</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
         <v>119</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2155,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6778C791-9A0C-41F8-B593-6C46134CE190}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
         <v>201</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>205</v>
@@ -2443,7 +2443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FF9DF-D953-4ABE-835B-97D392B009F8}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2480,12 +2480,12 @@
         <v>115</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>123</v>
@@ -2494,7 +2494,7 @@
         <v>115</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2520,44 +2520,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" t="s">
         <v>246</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>247</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>248</v>
-      </c>
-      <c r="D1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" t="s">
         <v>256</v>
-      </c>
-      <c r="D3" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
